--- a/hrcrm/dict_test.xlsx
+++ b/hrcrm/dict_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,39 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>What is for you Brio Maté ?</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pour moi, Brio Maté est une très bonne marque de maté parce que c'est sustainable et que le goût est très bon.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Qu'est-ce que vous aimez le plus à propos de Brio Maté ?</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Concernant le Brio Maté, ce que j'aime le plus, c'est le nouveau goût avec le limon qui est vraiment très bien.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Quels autres avantages trouvez-vous dans le Brio Maté par rapport à d'autres marques de maté ?</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Les autres avantages, c'est aussi qu'ils livrent super vite. Là, j'ai tout réussi en une journée, donc c'est incroyable.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/hrcrm/dict_test.xlsx
+++ b/hrcrm/dict_test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,31 @@
           <t>A3</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Q6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -506,6 +531,11 @@
           <t>Brio Maté is made by steeping yerba mate in hot water, then adding various other ingredients for flavor.</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -543,6 +573,11 @@
           <t>Brio Maté is available in various grocery stores and online marketplaces.</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -551,29 +586,90 @@
           <t>What is for you Brio Maté ?</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Pour moi, Brio Maté est une très bonne marque de maté parce que c'est sustainable et que le goût est très bon.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Qu'est-ce que vous aimez le plus à propos de Brio Maté ?</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Concernant le Brio Maté, ce que j'aime le plus, c'est le nouveau goût avec le limon qui est vraiment très bien.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Quels autres avantages trouvez-vous dans le Brio Maté par rapport à d'autres marques de maté ?</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Les autres avantages, c'est aussi qu'ils livrent super vite. Là, j'ai tout réussi en une journée, donc c'est incroyable.</t>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>What is for you Brio Maté ?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>What is for you Brio Maté ?</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Could you please provide a brief description or explanation of what Brio Maté is to you?</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pour moi, c'est une marque, une boisson, une marque.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Merci pour votre réponse. Pourriez-vous nous en dire un peu plus sur ce qui distingue Brio Maté des autres boissons ou marques sur le marché ?</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>C'est le meilleur et c'est sustainable.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Merci pour ces informations ! Qu'est-ce qui fait de Brio Maté le meilleur pour vous ? Et pouvez-vous nous expliquer ce que vous entendez par "sustainable" en ce qui concerne Brio Maté ?</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>C'est le meilleur parce que le limon est vraiment bon et le paquetage est sustainable.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Merci pour ces précisions ! Donc, vous appréciez particulièrement la saveur du Brio Maté et vous considérez également que son emballage est durable. Pouvez-vous nous en dire plus sur les caractéristiques durables ou écologiques de l'emballage de Brio Maté ?</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>C'est avec du papier, du papier sustainable.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Merci pour cette information supplémentaire ! Il est bon de savoir que l'emballage de Brio Maté est fabriqué à partir de papier durable. Avez-vous d'autres commentaires ou observations sur les avantages ou les caractéristiques de Brio Maté que vous souhaitez partager avec nous ?</t>
         </is>
       </c>
     </row>
